--- a/Sprite_Files/SpriteBOM.xlsx
+++ b/Sprite_Files/SpriteBOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="27560" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="10660" yWindow="620" windowWidth="27560" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>Part</t>
   </si>
@@ -74,9 +74,6 @@
     <t>0603-CAP</t>
   </si>
   <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
     <t>470nF</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>0603-RES</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -224,24 +218,9 @@
     <t>497-14946-1-ND</t>
   </si>
   <si>
-    <t>IMU</t>
-  </si>
-  <si>
-    <t>MCU + Radio</t>
-  </si>
-  <si>
-    <t>Solar Cell</t>
-  </si>
-  <si>
-    <t>TCXO</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
     <t>0603-LED</t>
   </si>
   <si>
@@ -275,27 +254,65 @@
     <t>P1, P2</t>
   </si>
   <si>
-    <t>SMD Test Point</t>
-  </si>
-  <si>
     <t>R3, R4, R5, R7</t>
   </si>
   <si>
     <t>S1, S2, S3, S4</t>
+  </si>
+  <si>
+    <t>IC MCU 16B 32K W/RF CORE 48VQFN</t>
+  </si>
+  <si>
+    <t>CAP CER 10000PF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 0.47UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 2200PF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>LED GREEN DIFFUSED 0603 SMD</t>
+  </si>
+  <si>
+    <t>FIXED IND 12NH 300MA 280 MOHM</t>
+  </si>
+  <si>
+    <t>TESTPOINT PIN SMD</t>
+  </si>
+  <si>
+    <t>RES SMD 56K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RES SMD 47K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RES SMD 0.0 OHM JUMPER 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RES SMD 270 OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Solar Cell TRISOLX</t>
+  </si>
+  <si>
+    <t>ACCELEROMETER 3D INEMO 24TFLGA</t>
+  </si>
+  <si>
+    <t>OSC TCXO 26.000MHZ CLPD SNWV SMD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,12 +331,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Times"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -342,14 +360,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,7 +651,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -644,7 +661,7 @@
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -653,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -668,382 +685,382 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
-    </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G27" s="6"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G28" s="6"/>
+      <c r="G28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sprite_Files/SpriteBOM.xlsx
+++ b/Sprite_Files/SpriteBOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="620" windowWidth="27560" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="1240" yWindow="620" windowWidth="27560" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,9 +254,6 @@
     <t>P1, P2</t>
   </si>
   <si>
-    <t>R3, R4, R5, R7</t>
-  </si>
-  <si>
     <t>S1, S2, S3, S4</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t>OSC TCXO 26.000MHZ CLPD SNWV SMD</t>
+  </si>
+  <si>
+    <t>R3, R4, R6, R7</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>42</v>
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>43</v>
@@ -751,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>44</v>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>45</v>
@@ -797,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>47</v>
@@ -820,7 +820,7 @@
         <v>57</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>48</v>
@@ -843,7 +843,7 @@
         <v>49</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>46</v>
@@ -866,7 +866,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>50</v>
@@ -889,7 +889,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>51</v>
@@ -912,7 +912,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>52</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
@@ -935,7 +935,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>60</v>
@@ -958,7 +958,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>53</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -981,7 +981,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>41</v>
@@ -1004,7 +1004,7 @@
         <v>32</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>40</v>
@@ -1027,7 +1027,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>55</v>
@@ -1050,7 +1050,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>54</v>
